--- a/artfynd/A 56546-2019.xlsx
+++ b/artfynd/A 56546-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>265041</v>
+        <v>76079550</v>
       </c>
       <c r="B2" t="n">
-        <v>93160</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,41 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>771</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Platt spretmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Herzogiella turfacea</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Lindb.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>med kapsel</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Södra Lunsen: 500 m O om Lövhagen, Upl</t>
+          <t>Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>649673.3557486779</v>
+        <v>649646.1986811339</v>
       </c>
       <c r="R2" t="n">
-        <v>6627723.644149829</v>
+        <v>6628022.132531144</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,27 +754,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Södra Lunsen: 500 m O om Lövhagen, Hottonia-kärret .</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,46 +780,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>grankärr</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>alsockel</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>Tomas Hallingbäck</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>TH 131</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tomas Hallingbäck</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tomas Hallingbäck, Niklas Lönnell</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16996301</v>
+        <v>82809365</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -834,38 +808,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fredrikslunds herrgård, 1,1 km O-ut, Upl</t>
+          <t>Kungshamn-Morga, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>649607.9583553467</v>
+        <v>649672.942839288</v>
       </c>
       <c r="R3" t="n">
-        <v>6627766.912097538</v>
+        <v>6627934.950147328</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,22 +870,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,22 +900,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16996367</v>
+        <v>265041</v>
       </c>
       <c r="B4" t="n">
-        <v>73507</v>
+        <v>93160</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,43 +924,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6428</v>
+        <v>771</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Platt spretmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Herzogiella turfacea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Lindb.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>med kapsel</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fredrikslunds herrgård, 1,2 km O-ut, Upl</t>
+          <t>Södra Lunsen: 500 m O om Lövhagen, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>649655.156471385</v>
+        <v>649673.3557486779</v>
       </c>
       <c r="R4" t="n">
-        <v>6627723.921183072</v>
+        <v>6627723.644149829</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1006,7 +987,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1016,7 +997,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1024,6 +1005,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Södra Lunsen: 500 m O om Lövhagen, Hottonia-kärret .</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1033,45 +1019,45 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>klibbal</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>grankärr</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Alnus glutinosa # Bark på levande träd</t>
+          <t>alsockel</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Tomas Hallingbäck</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>TH 131</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>Tomas Hallingbäck</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>Tomas Hallingbäck, Niklas Lönnell</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16999462</v>
+        <v>16996301</v>
       </c>
       <c r="B5" t="n">
-        <v>93158</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1084,39 +1070,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2818</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>med kapsel</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Fredrikslunds herrgård, 1,1 km O-ut, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>649609.9572749715</v>
+        <v>649607.9583553467</v>
       </c>
       <c r="R5" t="n">
-        <v>6627754.887836397</v>
+        <v>6627766.912097538</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1169,16 +1150,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Vedyta på död ved</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Wood surface of dead wood</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1195,10 +1166,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81885</v>
+        <v>16996367</v>
       </c>
       <c r="B6" t="n">
-        <v>94121</v>
+        <v>73507</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1207,38 +1178,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>6428</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lunsen, SV-delen, Upl</t>
+          <t>Fredrikslunds herrgård, 1,2 km O-ut, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>649303.8193478377</v>
+        <v>649655.156471385</v>
       </c>
       <c r="R6" t="n">
-        <v>6627275.533097762</v>
+        <v>6627723.921183072</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1238,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1275,7 +1248,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1292,34 +1265,45 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>ANAHELL46</t>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>klibbal</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa # Bark på levande träd</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Lars-Thure Nordin</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Via Lars-Thure Nordin</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Uppföljning av skyddade områden</t>
-        </is>
-      </c>
+          <t>Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91491</v>
+        <v>16999462</v>
       </c>
       <c r="B7" t="n">
-        <v>93235</v>
+        <v>93158</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1332,34 +1316,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>210</v>
+        <v>2818</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>med kapsel</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lunsen, SV-delen, Upl</t>
+          <t>Fredrikslunds herrgård, 1,1 km O-ut, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>649467.5277176944</v>
+        <v>649609.9572749715</v>
       </c>
       <c r="R7" t="n">
-        <v>6627313.375590625</v>
+        <v>6627754.887836397</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1386,7 +1375,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1396,7 +1385,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1413,27 +1402,28 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>BUXVIRI35</t>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Vedyta på död ved</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Wood surface of dead wood</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Lars-Thure Nordin</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Via Lars-Thure Nordin</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Uppföljning av skyddade områden</t>
-        </is>
-      </c>
+          <t>Henry Åkerström</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1671,10 +1661,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58751180</v>
+        <v>58751188</v>
       </c>
       <c r="B10" t="n">
-        <v>103813</v>
+        <v>101680</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1683,20 +1673,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220785</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1705,16 +1695,21 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>649078.0321336354</v>
+        <v>649531.8684471365</v>
       </c>
       <c r="R10" t="n">
-        <v>6627059.164054536</v>
+        <v>6627409.779569868</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1767,11 +1762,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Hassellund</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1788,10 +1778,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>58751178</v>
+        <v>58751187</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>93056</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1804,21 +1794,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>2813</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1828,10 +1818,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>649078.0321336354</v>
+        <v>649520.9155614455</v>
       </c>
       <c r="R11" t="n">
-        <v>6627059.164054536</v>
+        <v>6627367.978278528</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1887,7 +1877,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Hassellund</t>
+          <t>Fuktig skog med tall, gran, al</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1905,7 +1895,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>58751184</v>
+        <v>58751196</v>
       </c>
       <c r="B12" t="n">
         <v>93056</v>
@@ -1945,10 +1935,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>649331.7884449278</v>
+        <v>649551.2179491939</v>
       </c>
       <c r="R12" t="n">
-        <v>6627245.885063696</v>
+        <v>6627619.878867824</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>58751188</v>
+        <v>58751193</v>
       </c>
       <c r="B13" t="n">
-        <v>101680</v>
+        <v>93056</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,39 +2028,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>2813</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>649531.8684471365</v>
+        <v>649628.7401523949</v>
       </c>
       <c r="R13" t="n">
-        <v>6627409.779569868</v>
+        <v>6627765.225589475</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2123,6 +2108,11 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Alkärr</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2139,10 +2129,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>58751187</v>
+        <v>75541699</v>
       </c>
       <c r="B14" t="n">
-        <v>93056</v>
+        <v>89376</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2155,37 +2145,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2813</v>
+        <v>4660</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>649520.9155614455</v>
+        <v>649733.3420592496</v>
       </c>
       <c r="R14" t="n">
-        <v>6627367.978278528</v>
+        <v>6627714.456104034</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2209,7 +2199,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2219,7 +2209,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2235,31 +2225,26 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Fuktig skog med tall, gran, al</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>58751179</v>
+        <v>75541724</v>
       </c>
       <c r="B15" t="n">
-        <v>93158</v>
+        <v>100515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2268,41 +2253,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2818</v>
+        <v>223246</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>649078.0321336354</v>
+        <v>649572.6758800409</v>
       </c>
       <c r="R15" t="n">
-        <v>6627059.164054536</v>
+        <v>6627714.553837128</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2326,7 +2311,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2336,7 +2321,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2352,31 +2337,26 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Hassellund</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>58751196</v>
+        <v>75541723</v>
       </c>
       <c r="B16" t="n">
-        <v>93056</v>
+        <v>89392</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2385,41 +2365,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2813</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>649551.2179491939</v>
+        <v>649613.0024033289</v>
       </c>
       <c r="R16" t="n">
-        <v>6627619.878867824</v>
+        <v>6627767.114821787</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2443,7 +2423,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2453,7 +2433,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2469,31 +2449,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Sumpdråg</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>58751193</v>
+        <v>75541726</v>
       </c>
       <c r="B17" t="n">
-        <v>93056</v>
+        <v>90653</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2506,37 +2481,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2813</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>649628.7401523949</v>
+        <v>649548.8602653597</v>
       </c>
       <c r="R17" t="n">
-        <v>6627765.225589475</v>
+        <v>6627590.530204349</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2560,7 +2535,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2570,7 +2545,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2586,31 +2561,26 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Alkärr</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>75541753</v>
+        <v>75541722</v>
       </c>
       <c r="B18" t="n">
-        <v>98520</v>
+        <v>90074</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2623,21 +2593,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2647,10 +2617,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>649310.6292636944</v>
+        <v>649643.2885805941</v>
       </c>
       <c r="R18" t="n">
-        <v>6626979.700138588</v>
+        <v>6627755.218867909</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2719,10 +2689,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>75541762</v>
+        <v>75541718</v>
       </c>
       <c r="B19" t="n">
-        <v>57150</v>
+        <v>89789</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2735,21 +2705,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>208260</v>
+        <v>5420</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Huggorm</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Vipera berus</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2759,10 +2729,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>649086.0832383449</v>
+        <v>649750.9012093879</v>
       </c>
       <c r="R19" t="n">
-        <v>6627034.768477295</v>
+        <v>6627679.856626233</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2789,7 +2759,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2799,7 +2769,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2831,10 +2801,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>75541754</v>
+        <v>75801354</v>
       </c>
       <c r="B20" t="n">
-        <v>56411</v>
+        <v>93235</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2843,41 +2813,50 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>210</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Lunsen SV, vid Lillmossen, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>649379.1242262742</v>
+        <v>649516.8336545562</v>
       </c>
       <c r="R20" t="n">
-        <v>6627325.464472886</v>
+        <v>6627431.873863949</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2901,7 +2880,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-04-24</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2911,7 +2890,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-04-24</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2919,6 +2898,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>5 kapslar på starkt murken granlåga.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -2927,26 +2911,36 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Starkt murken granlåga. # Gran</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>75541763</v>
+        <v>75945707</v>
       </c>
       <c r="B21" t="n">
-        <v>93056</v>
+        <v>90674</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2959,37 +2953,46 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2813</v>
+        <v>5964</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Lunsen SV, vid Lillmossen, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>649068.2660050743</v>
+        <v>649650.967564463</v>
       </c>
       <c r="R21" t="n">
-        <v>6627088.53524025</v>
+        <v>6627664.74175459</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3013,7 +3016,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-09-15</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3023,7 +3026,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-09-15</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3031,34 +3034,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>1 ex. under gran.</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>75541699</v>
+        <v>81885</v>
       </c>
       <c r="B22" t="n">
-        <v>89376</v>
+        <v>94121</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3067,41 +3076,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4660</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Lunsen, SV-delen, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>649733.3420592496</v>
+        <v>649303.8193478377</v>
       </c>
       <c r="R22" t="n">
-        <v>6627714.456104034</v>
+        <v>6627275.533097762</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3125,7 +3134,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3135,7 +3144,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3151,26 +3160,35 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>ANAHELL46</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Lars-Thure Nordin</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Via Lars-Thure Nordin</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Uppföljning av skyddade områden</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>75541764</v>
+        <v>91491</v>
       </c>
       <c r="B23" t="n">
-        <v>98520</v>
+        <v>93235</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3183,37 +3201,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>210</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Lunsen, SV-delen, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>649062.2120559977</v>
+        <v>649467.5277176944</v>
       </c>
       <c r="R23" t="n">
-        <v>6627088.292872896</v>
+        <v>6627313.375590625</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3237,7 +3255,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3247,7 +3265,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3263,26 +3281,35 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>BUXVIRI35</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Lars-Thure Nordin</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Via Lars-Thure Nordin</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Uppföljning av skyddade områden</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>75541759</v>
+        <v>58751180</v>
       </c>
       <c r="B24" t="n">
-        <v>5135</v>
+        <v>103813</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3291,41 +3318,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>105930</v>
+        <v>220785</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>649197.3763212658</v>
+        <v>649078.0321336354</v>
       </c>
       <c r="R24" t="n">
-        <v>6627170.380981378</v>
+        <v>6627059.164054536</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3349,7 +3376,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3359,7 +3386,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3375,26 +3402,31 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Hassellund</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>75541751</v>
+        <v>58751178</v>
       </c>
       <c r="B25" t="n">
-        <v>90074</v>
+        <v>98520</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3407,37 +3439,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>222498</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>649465.3885494255</v>
+        <v>649078.0321336354</v>
       </c>
       <c r="R25" t="n">
-        <v>6627316.316211072</v>
+        <v>6627059.164054536</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3461,7 +3493,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3471,7 +3503,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3487,26 +3519,31 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Hassellund</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>75541724</v>
+        <v>58751184</v>
       </c>
       <c r="B26" t="n">
-        <v>100515</v>
+        <v>93056</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3515,41 +3552,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>223246</v>
+        <v>2813</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>649572.6758800409</v>
+        <v>649331.7884449278</v>
       </c>
       <c r="R26" t="n">
-        <v>6627714.553837128</v>
+        <v>6627245.885063696</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3573,7 +3610,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3583,7 +3620,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3599,26 +3636,31 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Sumpdråg</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>75541723</v>
+        <v>58751179</v>
       </c>
       <c r="B27" t="n">
-        <v>89392</v>
+        <v>93158</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3627,41 +3669,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>2818</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>649613.0024033289</v>
+        <v>649078.0321336354</v>
       </c>
       <c r="R27" t="n">
-        <v>6627767.114821787</v>
+        <v>6627059.164054536</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3685,7 +3727,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3695,7 +3737,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3711,26 +3753,31 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Hassellund</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>75541726</v>
+        <v>75541753</v>
       </c>
       <c r="B28" t="n">
-        <v>90653</v>
+        <v>98520</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3743,21 +3790,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3767,10 +3814,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>649548.8602653597</v>
+        <v>649310.6292636944</v>
       </c>
       <c r="R28" t="n">
-        <v>6627590.530204349</v>
+        <v>6626979.700138588</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3839,10 +3886,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>75541761</v>
+        <v>75541762</v>
       </c>
       <c r="B29" t="n">
-        <v>103813</v>
+        <v>57150</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3851,25 +3898,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220785</v>
+        <v>208260</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Huggorm</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Vipera berus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3879,10 +3926,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>649124.041508515</v>
+        <v>649086.0832383449</v>
       </c>
       <c r="R29" t="n">
-        <v>6627008.039216863</v>
+        <v>6627034.768477295</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3951,10 +3998,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>75541757</v>
+        <v>75541754</v>
       </c>
       <c r="B30" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3963,25 +4010,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3991,10 +4038,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>649251.3390297657</v>
+        <v>649379.1242262742</v>
       </c>
       <c r="R30" t="n">
-        <v>6626983.881100773</v>
+        <v>6627325.464472886</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4063,10 +4110,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>75541722</v>
+        <v>75541763</v>
       </c>
       <c r="B31" t="n">
-        <v>90074</v>
+        <v>93056</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4079,21 +4126,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3298</v>
+        <v>2813</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4103,10 +4150,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>649643.2885805941</v>
+        <v>649068.2660050743</v>
       </c>
       <c r="R31" t="n">
-        <v>6627755.218867909</v>
+        <v>6627088.53524025</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4175,10 +4222,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>75541756</v>
+        <v>75541764</v>
       </c>
       <c r="B32" t="n">
-        <v>93056</v>
+        <v>98520</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4191,21 +4238,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2813</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4215,10 +4262,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>649263.8501464813</v>
+        <v>649062.2120559977</v>
       </c>
       <c r="R32" t="n">
-        <v>6627024.739052144</v>
+        <v>6627088.292872896</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4287,10 +4334,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>75541718</v>
+        <v>75541759</v>
       </c>
       <c r="B33" t="n">
-        <v>89789</v>
+        <v>5135</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4303,21 +4350,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5420</v>
+        <v>105930</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4327,10 +4374,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>649750.9012093879</v>
+        <v>649197.3763212658</v>
       </c>
       <c r="R33" t="n">
-        <v>6627679.856626233</v>
+        <v>6627170.380981378</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4357,7 +4404,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4367,7 +4414,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4399,10 +4446,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>75801354</v>
+        <v>75541751</v>
       </c>
       <c r="B34" t="n">
-        <v>93235</v>
+        <v>90074</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4415,46 +4462,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>210</v>
+        <v>3298</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Lunsen SV, vid Lillmossen, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>649516.8336545562</v>
+        <v>649465.3885494255</v>
       </c>
       <c r="R34" t="n">
-        <v>6627431.873863949</v>
+        <v>6627316.316211072</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4478,7 +4516,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2003-04-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4488,7 +4526,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2003-04-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4496,11 +4534,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>5 kapslar på starkt murken granlåga.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4509,36 +4542,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Starkt murken granlåga. # Gran</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>75945707</v>
+        <v>75541761</v>
       </c>
       <c r="B35" t="n">
-        <v>90674</v>
+        <v>103813</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4547,50 +4570,41 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5964</v>
+        <v>220785</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Lunsen SV, vid Lillmossen, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>649650.967564463</v>
+        <v>649124.041508515</v>
       </c>
       <c r="R35" t="n">
-        <v>6627664.74175459</v>
+        <v>6627008.039216863</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4614,7 +4628,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2003-09-15</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4624,7 +4638,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2003-09-15</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4632,40 +4646,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>1 ex. under gran.</t>
-        </is>
-      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>76079550</v>
+        <v>75541757</v>
       </c>
       <c r="B36" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4674,45 +4682,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Lunsen, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>649646.1986811339</v>
+        <v>649251.3390297657</v>
       </c>
       <c r="R36" t="n">
-        <v>6628022.132531144</v>
+        <v>6626983.881100773</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4736,22 +4740,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4766,22 +4770,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>81534289</v>
+        <v>75541756</v>
       </c>
       <c r="B37" t="n">
-        <v>89392</v>
+        <v>93056</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4790,48 +4794,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>2813</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Nöjet, NO, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>649191.2821883537</v>
+        <v>649263.8501464813</v>
       </c>
       <c r="R37" t="n">
-        <v>6627057.646674879</v>
+        <v>6627024.739052144</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4855,7 +4852,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4865,7 +4862,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4879,42 +4876,28 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>äldre barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>1 substratenheter # granlåga</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Henrik Berg</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Henrik Berg</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>82809365</v>
+        <v>81534289</v>
       </c>
       <c r="B38" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4927,41 +4910,44 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga, Upl</t>
+          <t>Nöjet, NO, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>649672.942839288</v>
+        <v>649191.2821883537</v>
       </c>
       <c r="R38" t="n">
-        <v>6627934.950147328</v>
+        <v>6627057.646674879</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4985,22 +4971,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5009,18 +4995,32 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>äldre barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>1 substratenheter # granlåga</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Henrik Berg</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Henrik Berg</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>

--- a/artfynd/A 56546-2019.xlsx
+++ b/artfynd/A 56546-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76079550</v>
+        <v>265041</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>93160</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,41 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>771</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Platt spretmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Herzogiella turfacea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>(Lindb.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>med kapsel</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lunsen, Upl</t>
+          <t>Södra Lunsen: 500 m O om Lövhagen, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>649646.1986811339</v>
+        <v>649673.3557486779</v>
       </c>
       <c r="R2" t="n">
-        <v>6628022.132531144</v>
+        <v>6627723.644149829</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,22 +755,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-02-17</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Södra Lunsen: 500 m O om Lövhagen, Hottonia-kärret .</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,26 +786,46 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>grankärr</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>alsockel</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Tomas Hallingbäck</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>TH 131</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Tomas Hallingbäck</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Tomas Hallingbäck, Niklas Lönnell</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82809365</v>
+        <v>16996301</v>
       </c>
       <c r="B3" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,42 +834,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga, Upl</t>
+          <t>Fredrikslunds herrgård, 1,1 km O-ut, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>649672.942839288</v>
+        <v>649607.9583553467</v>
       </c>
       <c r="R3" t="n">
-        <v>6627934.950147328</v>
+        <v>6627766.912097538</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,22 +892,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -900,22 +922,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>David van der Spoel</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>265041</v>
+        <v>16996367</v>
       </c>
       <c r="B4" t="n">
-        <v>93160</v>
+        <v>73507</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,46 +946,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>771</v>
+        <v>6428</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Platt spretmossa</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Herzogiella turfacea</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lindb.) Z.Iwats.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>med kapsel</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Södra Lunsen: 500 m O om Lövhagen, Upl</t>
+          <t>Fredrikslunds herrgård, 1,2 km O-ut, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>649673.3557486779</v>
+        <v>649655.156471385</v>
       </c>
       <c r="R4" t="n">
-        <v>6627723.644149829</v>
+        <v>6627723.921183072</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -987,7 +1006,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -997,7 +1016,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>2015-01-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1005,11 +1024,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Södra Lunsen: 500 m O om Lövhagen, Hottonia-kärret .</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1019,45 +1033,45 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>grankärr</t>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>klibbal</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Alnus glutinosa</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>alsockel</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Tomas Hallingbäck</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>TH 131</t>
+          <t>Alnus glutinosa # Bark på levande träd</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Tomas Hallingbäck</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Tomas Hallingbäck, Niklas Lönnell</t>
+          <t>Henry Åkerström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16996301</v>
+        <v>16999462</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>93158</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,34 +1084,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>2818</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>med kapsel</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Fredrikslunds herrgård, 1,1 km O-ut, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>649607.9583553467</v>
+        <v>649609.9572749715</v>
       </c>
       <c r="R5" t="n">
-        <v>6627766.912097538</v>
+        <v>6627754.887836397</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,6 +1169,16 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Vedyta på död ved</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Wood surface of dead wood</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1166,10 +1195,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16996367</v>
+        <v>81885</v>
       </c>
       <c r="B6" t="n">
-        <v>73507</v>
+        <v>94121</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1178,40 +1207,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6428</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Fredrikslunds herrgård, 1,2 km O-ut, Upl</t>
+          <t>Lunsen, SV-delen, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>649655.156471385</v>
+        <v>649303.8193478377</v>
       </c>
       <c r="R6" t="n">
-        <v>6627723.921183072</v>
+        <v>6627275.533097762</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,7 +1265,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1248,7 +1275,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1265,45 +1292,34 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>klibbal</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Alnus glutinosa # Bark på levande träd</t>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>ANAHELL46</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>Lars-Thure Nordin</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Via Lars-Thure Nordin</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Uppföljning av skyddade områden</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16999462</v>
+        <v>91491</v>
       </c>
       <c r="B7" t="n">
-        <v>93158</v>
+        <v>93235</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1316,39 +1332,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2818</v>
+        <v>210</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>med kapsel</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Fredrikslunds herrgård, 1,1 km O-ut, Upl</t>
+          <t>Lunsen, SV-delen, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>649609.9572749715</v>
+        <v>649467.5277176944</v>
       </c>
       <c r="R7" t="n">
-        <v>6627754.887836397</v>
+        <v>6627313.375590625</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1375,7 +1386,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1385,7 +1396,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2015-01-04</t>
+          <t>2002-06-14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1402,28 +1413,27 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Vedyta på död ved</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Wood surface of dead wood</t>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>BUXVIRI35</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
+          <t>Lars-Thure Nordin</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Henry Åkerström</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Via Lars-Thure Nordin</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Uppföljning av skyddade områden</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1661,10 +1671,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58751188</v>
+        <v>58751180</v>
       </c>
       <c r="B10" t="n">
-        <v>101680</v>
+        <v>103813</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1673,20 +1683,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>220785</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1695,21 +1705,16 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>649531.8684471365</v>
+        <v>649078.0321336354</v>
       </c>
       <c r="R10" t="n">
-        <v>6627409.779569868</v>
+        <v>6627059.164054536</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1762,6 +1767,11 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Hassellund</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1778,10 +1788,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>58751187</v>
+        <v>58751178</v>
       </c>
       <c r="B11" t="n">
-        <v>93056</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1794,21 +1804,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2813</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1828,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>649520.9155614455</v>
+        <v>649078.0321336354</v>
       </c>
       <c r="R11" t="n">
-        <v>6627367.978278528</v>
+        <v>6627059.164054536</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1877,7 +1887,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Fuktig skog med tall, gran, al</t>
+          <t>Hassellund</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1895,7 +1905,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>58751196</v>
+        <v>58751184</v>
       </c>
       <c r="B12" t="n">
         <v>93056</v>
@@ -1935,10 +1945,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>649551.2179491939</v>
+        <v>649331.7884449278</v>
       </c>
       <c r="R12" t="n">
-        <v>6627619.878867824</v>
+        <v>6627245.885063696</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2012,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>58751193</v>
+        <v>58751188</v>
       </c>
       <c r="B13" t="n">
-        <v>93056</v>
+        <v>101680</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2028,34 +2038,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2813</v>
+        <v>222412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>649628.7401523949</v>
+        <v>649531.8684471365</v>
       </c>
       <c r="R13" t="n">
-        <v>6627765.225589475</v>
+        <v>6627409.779569868</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2108,11 +2123,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Alkärr</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2129,10 +2139,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75541699</v>
+        <v>58751187</v>
       </c>
       <c r="B14" t="n">
-        <v>89376</v>
+        <v>93056</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2145,37 +2155,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4660</v>
+        <v>2813</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>649733.3420592496</v>
+        <v>649520.9155614455</v>
       </c>
       <c r="R14" t="n">
-        <v>6627714.456104034</v>
+        <v>6627367.978278528</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2199,7 +2209,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2209,7 +2219,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2225,26 +2235,31 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Fuktig skog med tall, gran, al</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>75541724</v>
+        <v>58751179</v>
       </c>
       <c r="B15" t="n">
-        <v>100515</v>
+        <v>93158</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2253,41 +2268,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>223246</v>
+        <v>2818</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>649572.6758800409</v>
+        <v>649078.0321336354</v>
       </c>
       <c r="R15" t="n">
-        <v>6627714.553837128</v>
+        <v>6627059.164054536</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2311,7 +2326,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2321,7 +2336,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2337,26 +2352,31 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Hassellund</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>75541723</v>
+        <v>58751196</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>93056</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2365,41 +2385,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>2813</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>649613.0024033289</v>
+        <v>649551.2179491939</v>
       </c>
       <c r="R16" t="n">
-        <v>6627767.114821787</v>
+        <v>6627619.878867824</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2423,7 +2443,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2433,7 +2453,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2449,26 +2469,31 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Sumpdråg</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>75541726</v>
+        <v>58751193</v>
       </c>
       <c r="B17" t="n">
-        <v>90653</v>
+        <v>93056</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2481,37 +2506,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>2813</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>649548.8602653597</v>
+        <v>649628.7401523949</v>
       </c>
       <c r="R17" t="n">
-        <v>6627590.530204349</v>
+        <v>6627765.225589475</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2535,7 +2560,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2545,7 +2570,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2016-04-12</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2561,26 +2586,31 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Alkärr</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Karin Wiklund</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>75541722</v>
+        <v>75541753</v>
       </c>
       <c r="B18" t="n">
-        <v>90074</v>
+        <v>98520</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2593,21 +2623,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2617,10 +2647,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>649643.2885805941</v>
+        <v>649310.6292636944</v>
       </c>
       <c r="R18" t="n">
-        <v>6627755.218867909</v>
+        <v>6626979.700138588</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2689,10 +2719,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>75541718</v>
+        <v>75541762</v>
       </c>
       <c r="B19" t="n">
-        <v>89789</v>
+        <v>57150</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2705,21 +2735,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5420</v>
+        <v>208260</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Huggorm</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Vipera berus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2729,10 +2759,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>649750.9012093879</v>
+        <v>649086.0832383449</v>
       </c>
       <c r="R19" t="n">
-        <v>6627679.856626233</v>
+        <v>6627034.768477295</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2759,7 +2789,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2769,7 +2799,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2018-09-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2801,10 +2831,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>75801354</v>
+        <v>75541754</v>
       </c>
       <c r="B20" t="n">
-        <v>93235</v>
+        <v>56411</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2813,50 +2843,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>210</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Lunsen SV, vid Lillmossen, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>649516.8336545562</v>
+        <v>649379.1242262742</v>
       </c>
       <c r="R20" t="n">
-        <v>6627431.873863949</v>
+        <v>6627325.464472886</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2880,7 +2901,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2003-04-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2890,7 +2911,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2003-04-24</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2898,11 +2919,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>5 kapslar på starkt murken granlåga.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -2911,36 +2927,26 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Starkt murken granlåga. # Gran</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>75945707</v>
+        <v>75541763</v>
       </c>
       <c r="B21" t="n">
-        <v>90674</v>
+        <v>93056</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2953,46 +2959,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5964</v>
+        <v>2813</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Lindb.) T.J.Kop.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Lunsen SV, vid Lillmossen, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>649650.967564463</v>
+        <v>649068.2660050743</v>
       </c>
       <c r="R21" t="n">
-        <v>6627664.74175459</v>
+        <v>6627088.53524025</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3016,7 +3013,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2003-09-15</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3026,7 +3023,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2003-09-15</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3034,40 +3031,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>1 ex. under gran.</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Gillis Aronsson</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>81885</v>
+        <v>75541699</v>
       </c>
       <c r="B22" t="n">
-        <v>94121</v>
+        <v>89376</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3076,41 +3067,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>4660</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Lunsen, SV-delen, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>649303.8193478377</v>
+        <v>649733.3420592496</v>
       </c>
       <c r="R22" t="n">
-        <v>6627275.533097762</v>
+        <v>6627714.456104034</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3134,7 +3125,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3144,7 +3135,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3160,35 +3151,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>ANAHELL46</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Lars-Thure Nordin</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Via Lars-Thure Nordin</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Uppföljning av skyddade områden</t>
-        </is>
-      </c>
+          <t>Lisa Sandberg, Barbara Kühn</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>91491</v>
+        <v>75541764</v>
       </c>
       <c r="B23" t="n">
-        <v>93235</v>
+        <v>98520</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3201,37 +3183,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>210</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Lunsen, SV-delen, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>649467.5277176944</v>
+        <v>649062.2120559977</v>
       </c>
       <c r="R23" t="n">
-        <v>6627313.375590625</v>
+        <v>6627088.292872896</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3255,7 +3237,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3265,7 +3247,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2002-06-14</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3281,35 +3263,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>BUXVIRI35</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Lars-Thure Nordin</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Via Lars-Thure Nordin</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Uppföljning av skyddade områden</t>
-        </is>
-      </c>
+          <t>Lisa Sandberg, Barbara Kühn</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>58751180</v>
+        <v>75541759</v>
       </c>
       <c r="B24" t="n">
-        <v>103813</v>
+        <v>5135</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3318,41 +3291,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220785</v>
+        <v>105930</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>649078.0321336354</v>
+        <v>649197.3763212658</v>
       </c>
       <c r="R24" t="n">
-        <v>6627059.164054536</v>
+        <v>6627170.380981378</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3376,7 +3349,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3386,7 +3359,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3402,31 +3375,26 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Hassellund</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>58751178</v>
+        <v>75541751</v>
       </c>
       <c r="B25" t="n">
-        <v>98520</v>
+        <v>90074</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3439,37 +3407,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>649078.0321336354</v>
+        <v>649465.3885494255</v>
       </c>
       <c r="R25" t="n">
-        <v>6627059.164054536</v>
+        <v>6627316.316211072</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3493,7 +3461,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3503,7 +3471,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3519,31 +3487,26 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>Hassellund</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>58751184</v>
+        <v>75541724</v>
       </c>
       <c r="B26" t="n">
-        <v>93056</v>
+        <v>100515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3552,41 +3515,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2813</v>
+        <v>223246</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>649331.7884449278</v>
+        <v>649572.6758800409</v>
       </c>
       <c r="R26" t="n">
-        <v>6627245.885063696</v>
+        <v>6627714.553837128</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3610,7 +3573,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3620,7 +3583,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3636,31 +3599,26 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>Sumpdråg</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>58751179</v>
+        <v>75541723</v>
       </c>
       <c r="B27" t="n">
-        <v>93158</v>
+        <v>89392</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3669,41 +3627,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2818</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Nöjet, 2-3 km NO Krusenberg, Upl</t>
+          <t>Sydvästra Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>649078.0321336354</v>
+        <v>649613.0024033289</v>
       </c>
       <c r="R27" t="n">
-        <v>6627059.164054536</v>
+        <v>6627767.114821787</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3727,7 +3685,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3737,7 +3695,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2016-04-12</t>
+          <t>2018-09-19</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3753,31 +3711,26 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Hassellund</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Maria Jakobsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Karin Wiklund</t>
+          <t>Lisa Sandberg, Barbara Kühn</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>75541753</v>
+        <v>75541726</v>
       </c>
       <c r="B28" t="n">
-        <v>98520</v>
+        <v>90653</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3790,21 +3743,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3814,10 +3767,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>649310.6292636944</v>
+        <v>649548.8602653597</v>
       </c>
       <c r="R28" t="n">
-        <v>6626979.700138588</v>
+        <v>6627590.530204349</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3886,10 +3839,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>75541762</v>
+        <v>75541761</v>
       </c>
       <c r="B29" t="n">
-        <v>57150</v>
+        <v>103813</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3898,25 +3851,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>208260</v>
+        <v>220785</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Huggorm</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Vipera berus</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3926,10 +3879,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>649086.0832383449</v>
+        <v>649124.041508515</v>
       </c>
       <c r="R29" t="n">
-        <v>6627034.768477295</v>
+        <v>6627008.039216863</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3998,10 +3951,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>75541754</v>
+        <v>75541757</v>
       </c>
       <c r="B30" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4010,25 +3963,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4038,10 +3991,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>649379.1242262742</v>
+        <v>649251.3390297657</v>
       </c>
       <c r="R30" t="n">
-        <v>6627325.464472886</v>
+        <v>6626983.881100773</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4110,10 +4063,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>75541763</v>
+        <v>75541722</v>
       </c>
       <c r="B31" t="n">
-        <v>93056</v>
+        <v>90074</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4126,21 +4079,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2813</v>
+        <v>3298</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4150,10 +4103,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>649068.2660050743</v>
+        <v>649643.2885805941</v>
       </c>
       <c r="R31" t="n">
-        <v>6627088.53524025</v>
+        <v>6627755.218867909</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4222,10 +4175,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>75541764</v>
+        <v>75541756</v>
       </c>
       <c r="B32" t="n">
-        <v>98520</v>
+        <v>93056</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4238,21 +4191,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>2813</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4262,10 +4215,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>649062.2120559977</v>
+        <v>649263.8501464813</v>
       </c>
       <c r="R32" t="n">
-        <v>6627088.292872896</v>
+        <v>6627024.739052144</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4334,10 +4287,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>75541759</v>
+        <v>75541718</v>
       </c>
       <c r="B33" t="n">
-        <v>5135</v>
+        <v>89789</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4350,21 +4303,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>105930</v>
+        <v>5420</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4374,10 +4327,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>649197.3763212658</v>
+        <v>649750.9012093879</v>
       </c>
       <c r="R33" t="n">
-        <v>6627170.380981378</v>
+        <v>6627679.856626233</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4404,7 +4357,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4414,7 +4367,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2018-09-24</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4446,10 +4399,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>75541751</v>
+        <v>75801354</v>
       </c>
       <c r="B34" t="n">
-        <v>90074</v>
+        <v>93235</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4462,37 +4415,46 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3298</v>
+        <v>210</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Lunsen SV, vid Lillmossen, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>649465.3885494255</v>
+        <v>649516.8336545562</v>
       </c>
       <c r="R34" t="n">
-        <v>6627316.316211072</v>
+        <v>6627431.873863949</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4516,7 +4478,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-04-24</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4526,7 +4488,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-04-24</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4534,6 +4496,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>5 kapslar på starkt murken granlåga.</t>
+        </is>
+      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
@@ -4542,26 +4509,36 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Starkt murken granlåga. # Gran</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>75541761</v>
+        <v>75945707</v>
       </c>
       <c r="B35" t="n">
-        <v>103813</v>
+        <v>90674</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4570,41 +4547,50 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220785</v>
+        <v>5964</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Lunsen SV, vid Lillmossen, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>649124.041508515</v>
+        <v>649650.967564463</v>
       </c>
       <c r="R35" t="n">
-        <v>6627008.039216863</v>
+        <v>6627664.74175459</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4628,7 +4614,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-09-15</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4638,7 +4624,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2003-09-15</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4646,34 +4632,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>1 ex. under gran.</t>
+        </is>
+      </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Gillis Aronsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>75541757</v>
+        <v>76079550</v>
       </c>
       <c r="B36" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4682,41 +4674,45 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Lunsen, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>649251.3390297657</v>
+        <v>649646.1986811339</v>
       </c>
       <c r="R36" t="n">
-        <v>6626983.881100773</v>
+        <v>6628022.132531144</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4740,22 +4736,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2019-02-17</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4770,22 +4766,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>75541756</v>
+        <v>81534289</v>
       </c>
       <c r="B37" t="n">
-        <v>93056</v>
+        <v>89392</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4794,41 +4790,48 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2813</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sydvästra Lunsen, Upl</t>
+          <t>Nöjet, NO, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>649263.8501464813</v>
+        <v>649191.2821883537</v>
       </c>
       <c r="R37" t="n">
-        <v>6627024.739052144</v>
+        <v>6627057.646674879</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4852,7 +4855,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4862,7 +4865,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2018-09-19</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4876,28 +4879,42 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>äldre barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>1 substratenheter # granlåga</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Maria Jakobsson</t>
+          <t>Henrik Berg</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Lisa Sandberg, Barbara Kühn</t>
+          <t>Henrik Berg</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>81534289</v>
+        <v>82809365</v>
       </c>
       <c r="B38" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4910,44 +4927,41 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Nöjet, NO, Upl</t>
+          <t>Kungshamn-Morga, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>649191.2821883537</v>
+        <v>649672.942839288</v>
       </c>
       <c r="R38" t="n">
-        <v>6627057.646674879</v>
+        <v>6627934.950147328</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4971,22 +4985,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4995,32 +5009,18 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>äldre barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>1 substratenheter # granlåga</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Henrik Berg</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Henrik Berg</t>
+          <t>David van der Spoel</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
